--- a/data/out/wiki/women/uefa/eu/tb_eu_uefa_women.xlsx
+++ b/data/out/wiki/women/uefa/eu/tb_eu_uefa_women.xlsx
@@ -996,11 +996,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -1026,11 +1026,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1716,17 +1716,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
@@ -1786,13 +1786,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1966,13 +1966,13 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2116,13 +2116,13 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2326,13 +2326,13 @@
         <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>2</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
